--- a/qnn-experiments/plots/convergence_plots/maxiter/1000/plot_info/all_info.xlsx
+++ b/qnn-experiments/plots/convergence_plots/maxiter/1000/plot_info/all_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alina/qnn-experiments/qnn-experiments/plots/convergence_plots/maxiter/1000/plot_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04F92F-36D0-0648-8363-24A337EBD7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195E195-565D-A34E-9F4B-AAE42F35D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" activeTab="1" xr2:uid="{2EA3B7A7-8F8A-C446-86D1-18E5472C0D46}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" activeTab="1" xr2:uid="{2EA3B7A7-8F8A-C446-86D1-18E5472C0D46}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_fun_value" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{7375C102-EBB0-3D45-A178-1C0289C96699}" name="mean_fun_values" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alina/qnn-experiments/qnn-experiments/plots/convergence_plots/maxiter/1000/plot_info/mean_fun_values.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/alina/qnn-experiments/qnn-experiments/plots/convergence_plots/maxiter/1000/plot_info/mean_fun_values.csv" decimal="," thousands="." comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -6628,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F145EA-390D-B244-9DE7-3F8920334DB0}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6637,7 +6637,7 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
